--- a/設計書/DBのE-R図.xlsx
+++ b/設計書/DBのE-R図.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hoashi Akane\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hoashi Akane\CoffeeMarket\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E37513-1DAD-4E6F-A8A5-9CDA18D8C096}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D248542E-843D-4CE6-9DD5-D835C7632772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8460" yWindow="1470" windowWidth="13290" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1548" windowWidth="13296" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,24 +25,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="21">
   <si>
     <t>CoffeeBeans</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>beans_code(PK)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>beans_name</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>cart_code(PK)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>total_price</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -63,10 +55,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>user_id(PK,FK)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PurchaseHistory</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -87,23 +75,39 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>payment_code(PK)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PurchaseDetail</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>detail_code(PK)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>beans_code(FK)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>selling_price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id(PK)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id(FK)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cart_code(FK)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id(,FK)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>detail_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id(PK)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -127,7 +131,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,6 +141,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,39 +260,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -365,7 +381,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>616323</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -727,187 +743,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:N26"/>
+  <dimension ref="B3:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14:N20"/>
+      <selection activeCell="H17" sqref="H17:I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="3" spans="2:14" ht="19.5" thickBot="1">
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="2:14" ht="19.5" thickBot="1">
-      <c r="B4" s="8" t="s">
+    <row r="3" spans="2:14" ht="18.600000000000001" thickBot="1">
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="2:14" ht="18.600000000000001" thickBot="1">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="H4" s="8" t="s">
+      <c r="C4" s="8"/>
+      <c r="H4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="M4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="M4" s="8" t="s">
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="H5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="M5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="10"/>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="M6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="H7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="H8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="2:14" ht="18.600000000000001" thickBot="1">
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="H9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="2:14" ht="18.600000000000001" thickBot="1">
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="14" spans="2:14" ht="18.600000000000001" thickBot="1"/>
+    <row r="15" spans="2:14" ht="18.600000000000001" thickBot="1">
+      <c r="H15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="2:14" ht="18.600000000000001" thickBot="1">
+      <c r="H16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="H17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="H18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="H19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="H20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="9"/>
-    </row>
-    <row r="5" spans="2:14">
-      <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="H5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="M5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="2:14">
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="H6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="M6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="2:14">
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="H7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="2:14">
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="H8" s="1" t="s">
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="2:9" ht="18.600000000000001" thickBot="1">
+      <c r="H21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="2:14" ht="19.5" thickBot="1">
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="H9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="6"/>
-    </row>
-    <row r="10" spans="2:14" ht="19.5" thickBot="1">
-      <c r="B10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="14" spans="2:14" ht="19.5" thickBot="1"/>
-    <row r="15" spans="2:14" ht="19.5" thickBot="1">
-      <c r="H15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="2:14">
-      <c r="H16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="H17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="H18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="H19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="2:9" ht="19.5" thickBot="1">
-      <c r="H20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
+      <c r="I21" s="5"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
+  <mergeCells count="31">
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
@@ -916,6 +916,29 @@
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H9:I9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
